--- a/biology/Médecine/Lucie_Germain/Lucie_Germain.xlsx
+++ b/biology/Médecine/Lucie_Germain/Lucie_Germain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucie Germain est une docteure québécoise. Elle est la coordonnatrice scientifique du laboratoire d’organogenèse expérimentale du Centre hospitalier universitaire de Québec.
 Radio-Canada a décerné, à elle et à François Auger, le titre de scientifique de l'année de Radio-Canada en 1998 pour leurs travaux sur les vaisseaux sanguins humains artificiels et sur la peau destinée à des greffes.
@@ -512,9 +524,11 @@
           <t>Honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2022 - Prix Acfas Léo-Pariseau[1], pour les sciences de la santé et les sciences biologiques
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2022 - Prix Acfas Léo-Pariseau, pour les sciences de la santé et les sciences biologiques
 1998 - Scientifique de l'année par la Société Radio-Canada</t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ressources relatives à la recherche : Dimensions Google Scholar ORCID ResearchGate Scopus  
